--- a/spreadsheets/new/GSE99795.0.xlsx
+++ b/spreadsheets/new/GSE99795.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B530DAE-1B5F-0F48-9D42-227646D81761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31920" windowHeight="17160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_line" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="Sequencing_protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Specimen_from_organism" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7364" uniqueCount="2151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="2152">
   <si>
     <t>CELL_LINE.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -6476,13 +6482,16 @@
   </si>
   <si>
     <t>LNCaP_12 hour androgen-treated bulk</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6519,6 +6528,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6565,7 +6582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6597,9 +6614,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6631,6 +6666,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6806,97 +6859,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="11" width="49.7109375" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" customWidth="1"/>
-    <col min="13" max="13" width="120.7109375" customWidth="1"/>
-    <col min="14" max="14" width="70.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="120.7109375" customWidth="1"/>
-    <col min="18" max="18" width="69.7109375" customWidth="1"/>
-    <col min="19" max="19" width="58.7109375" customWidth="1"/>
-    <col min="20" max="20" width="141.7109375" customWidth="1"/>
-    <col min="21" max="21" width="57.7109375" customWidth="1"/>
-    <col min="22" max="22" width="85.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="57.7109375" customWidth="1"/>
-    <col min="28" max="28" width="48.7109375" customWidth="1"/>
-    <col min="29" max="29" width="68.7109375" customWidth="1"/>
-    <col min="30" max="30" width="62.7109375" customWidth="1"/>
-    <col min="31" max="31" width="81.7109375" customWidth="1"/>
-    <col min="32" max="32" width="61.7109375" customWidth="1"/>
-    <col min="33" max="33" width="195.7109375" customWidth="1"/>
-    <col min="34" max="34" width="62.7109375" customWidth="1"/>
-    <col min="35" max="35" width="150.7109375" customWidth="1"/>
-    <col min="36" max="36" width="78.7109375" customWidth="1"/>
-    <col min="37" max="37" width="49.7109375" customWidth="1"/>
-    <col min="38" max="38" width="69.7109375" customWidth="1"/>
-    <col min="39" max="39" width="58.7109375" customWidth="1"/>
-    <col min="40" max="40" width="141.7109375" customWidth="1"/>
-    <col min="41" max="41" width="60.7109375" customWidth="1"/>
-    <col min="42" max="42" width="68.7109375" customWidth="1"/>
-    <col min="43" max="43" width="58.7109375" customWidth="1"/>
-    <col min="44" max="44" width="141.7109375" customWidth="1"/>
-    <col min="45" max="45" width="129.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="63.7109375" customWidth="1"/>
-    <col min="50" max="50" width="58.7109375" customWidth="1"/>
-    <col min="51" max="51" width="141.7109375" customWidth="1"/>
-    <col min="52" max="52" width="67.7109375" customWidth="1"/>
-    <col min="53" max="53" width="55.7109375" customWidth="1"/>
-    <col min="54" max="54" width="68.7109375" customWidth="1"/>
-    <col min="55" max="55" width="34.7109375" customWidth="1"/>
-    <col min="56" max="56" width="68.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="80.7109375" customWidth="1"/>
-    <col min="63" max="63" width="73.7109375" customWidth="1"/>
-    <col min="64" max="64" width="71.7109375" customWidth="1"/>
-    <col min="65" max="65" width="75.7109375" customWidth="1"/>
-    <col min="66" max="66" width="32.7109375" customWidth="1"/>
-    <col min="67" max="67" width="67.7109375" customWidth="1"/>
-    <col min="68" max="68" width="41.7109375" customWidth="1"/>
-    <col min="69" max="69" width="84.7109375" customWidth="1"/>
-    <col min="70" max="70" width="104.7109375" customWidth="1"/>
-    <col min="71" max="71" width="104.7109375" customWidth="1"/>
-    <col min="72" max="72" width="104.7109375" customWidth="1"/>
-    <col min="73" max="73" width="88.7109375" customWidth="1"/>
-    <col min="74" max="74" width="69.7109375" customWidth="1"/>
-    <col min="75" max="75" width="58.7109375" customWidth="1"/>
-    <col min="76" max="76" width="141.7109375" customWidth="1"/>
-    <col min="77" max="77" width="67.7109375" customWidth="1"/>
-    <col min="78" max="78" width="58.7109375" customWidth="1"/>
-    <col min="79" max="79" width="141.7109375" customWidth="1"/>
-    <col min="80" max="80" width="79.7109375" customWidth="1"/>
-    <col min="81" max="81" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" customWidth="1"/>
+    <col min="12" max="12" width="52.6640625" customWidth="1"/>
+    <col min="13" max="13" width="120.6640625" customWidth="1"/>
+    <col min="14" max="14" width="70.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="120.6640625" customWidth="1"/>
+    <col min="18" max="18" width="69.6640625" customWidth="1"/>
+    <col min="19" max="19" width="58.6640625" customWidth="1"/>
+    <col min="20" max="20" width="141.6640625" customWidth="1"/>
+    <col min="21" max="21" width="57.6640625" customWidth="1"/>
+    <col min="22" max="22" width="85.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="57.6640625" customWidth="1"/>
+    <col min="28" max="28" width="48.6640625" customWidth="1"/>
+    <col min="29" max="29" width="68.6640625" customWidth="1"/>
+    <col min="30" max="30" width="62.6640625" customWidth="1"/>
+    <col min="31" max="31" width="81.6640625" customWidth="1"/>
+    <col min="32" max="32" width="61.6640625" customWidth="1"/>
+    <col min="33" max="33" width="195.6640625" customWidth="1"/>
+    <col min="34" max="34" width="62.6640625" customWidth="1"/>
+    <col min="35" max="35" width="150.6640625" customWidth="1"/>
+    <col min="36" max="36" width="78.6640625" customWidth="1"/>
+    <col min="37" max="37" width="49.6640625" customWidth="1"/>
+    <col min="38" max="38" width="69.6640625" customWidth="1"/>
+    <col min="39" max="39" width="58.6640625" customWidth="1"/>
+    <col min="40" max="40" width="141.6640625" customWidth="1"/>
+    <col min="41" max="41" width="60.6640625" customWidth="1"/>
+    <col min="42" max="42" width="68.6640625" customWidth="1"/>
+    <col min="43" max="43" width="58.6640625" customWidth="1"/>
+    <col min="44" max="44" width="141.6640625" customWidth="1"/>
+    <col min="45" max="45" width="129.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="63.6640625" customWidth="1"/>
+    <col min="50" max="50" width="58.6640625" customWidth="1"/>
+    <col min="51" max="51" width="141.6640625" customWidth="1"/>
+    <col min="52" max="52" width="67.6640625" customWidth="1"/>
+    <col min="53" max="53" width="55.6640625" customWidth="1"/>
+    <col min="54" max="54" width="68.6640625" customWidth="1"/>
+    <col min="55" max="55" width="34.6640625" customWidth="1"/>
+    <col min="56" max="56" width="68.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="80.6640625" customWidth="1"/>
+    <col min="63" max="63" width="73.6640625" customWidth="1"/>
+    <col min="64" max="64" width="71.6640625" customWidth="1"/>
+    <col min="65" max="65" width="75.6640625" customWidth="1"/>
+    <col min="66" max="66" width="32.6640625" customWidth="1"/>
+    <col min="67" max="67" width="67.6640625" customWidth="1"/>
+    <col min="68" max="68" width="41.6640625" customWidth="1"/>
+    <col min="69" max="69" width="84.6640625" customWidth="1"/>
+    <col min="70" max="72" width="104.6640625" customWidth="1"/>
+    <col min="73" max="73" width="88.6640625" customWidth="1"/>
+    <col min="74" max="74" width="69.6640625" customWidth="1"/>
+    <col min="75" max="75" width="58.6640625" customWidth="1"/>
+    <col min="76" max="76" width="141.6640625" customWidth="1"/>
+    <col min="77" max="77" width="67.6640625" customWidth="1"/>
+    <col min="78" max="78" width="58.6640625" customWidth="1"/>
+    <col min="79" max="79" width="141.6640625" customWidth="1"/>
+    <col min="80" max="80" width="79.6640625" customWidth="1"/>
+    <col min="81" max="81" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7141,7 +7192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -7386,7 +7437,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:81">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -7610,7 +7661,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:81">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -7855,12 +7906,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:81">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -7874,76 +7925,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -8125,7 +8173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -8307,7 +8355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -8468,7 +8516,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -8650,12 +8698,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -8669,7 +8717,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>450</v>
       </c>
@@ -8683,7 +8731,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>547</v>
       </c>
@@ -8697,7 +8745,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>644</v>
       </c>
@@ -8711,7 +8759,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>647</v>
       </c>
@@ -8725,7 +8773,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>650</v>
       </c>
@@ -8745,75 +8793,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>282</v>
       </c>
@@ -8992,7 +9036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -9171,7 +9215,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -9329,7 +9373,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -9508,12 +9552,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -9548,7 +9592,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -9583,7 +9627,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -9618,7 +9662,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -9653,7 +9697,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>359</v>
       </c>
@@ -9688,7 +9732,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>361</v>
       </c>
@@ -9723,7 +9767,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>363</v>
       </c>
@@ -9758,7 +9802,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -9793,7 +9837,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -9828,7 +9872,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -9863,7 +9907,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>371</v>
       </c>
@@ -9898,7 +9942,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>373</v>
       </c>
@@ -9933,7 +9977,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>375</v>
       </c>
@@ -9968,7 +10012,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -10003,7 +10047,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>379</v>
       </c>
@@ -10038,7 +10082,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -10073,7 +10117,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>383</v>
       </c>
@@ -10108,7 +10152,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>385</v>
       </c>
@@ -10143,7 +10187,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -10178,7 +10222,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -10213,7 +10257,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>391</v>
       </c>
@@ -10248,7 +10292,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -10283,7 +10327,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>395</v>
       </c>
@@ -10318,7 +10362,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>397</v>
       </c>
@@ -10353,7 +10397,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>399</v>
       </c>
@@ -10388,7 +10432,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>401</v>
       </c>
@@ -10423,7 +10467,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>403</v>
       </c>
@@ -10458,7 +10502,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>405</v>
       </c>
@@ -10493,7 +10537,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>407</v>
       </c>
@@ -10528,7 +10572,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>409</v>
       </c>
@@ -10563,7 +10607,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>411</v>
       </c>
@@ -10598,7 +10642,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>413</v>
       </c>
@@ -10633,7 +10677,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>415</v>
       </c>
@@ -10668,7 +10712,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>417</v>
       </c>
@@ -10703,7 +10747,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>419</v>
       </c>
@@ -10738,7 +10782,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>421</v>
       </c>
@@ -10773,7 +10817,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>423</v>
       </c>
@@ -10808,7 +10852,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>425</v>
       </c>
@@ -10843,7 +10887,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>427</v>
       </c>
@@ -10878,7 +10922,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>429</v>
       </c>
@@ -10913,7 +10957,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>431</v>
       </c>
@@ -10948,7 +10992,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>433</v>
       </c>
@@ -10983,7 +11027,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>435</v>
       </c>
@@ -11018,7 +11062,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -11053,7 +11097,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>439</v>
       </c>
@@ -11088,7 +11132,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>441</v>
       </c>
@@ -11123,7 +11167,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>443</v>
       </c>
@@ -11158,7 +11202,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>445</v>
       </c>
@@ -11193,7 +11237,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>447</v>
       </c>
@@ -11228,7 +11272,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>451</v>
       </c>
@@ -11263,7 +11307,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>453</v>
       </c>
@@ -11298,7 +11342,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>455</v>
       </c>
@@ -11333,7 +11377,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>457</v>
       </c>
@@ -11368,7 +11412,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>459</v>
       </c>
@@ -11403,7 +11447,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>461</v>
       </c>
@@ -11438,7 +11482,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>463</v>
       </c>
@@ -11473,7 +11517,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>465</v>
       </c>
@@ -11508,7 +11552,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>467</v>
       </c>
@@ -11543,7 +11587,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>469</v>
       </c>
@@ -11578,7 +11622,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>471</v>
       </c>
@@ -11613,7 +11657,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>473</v>
       </c>
@@ -11648,7 +11692,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>475</v>
       </c>
@@ -11683,7 +11727,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>477</v>
       </c>
@@ -11718,7 +11762,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>479</v>
       </c>
@@ -11753,7 +11797,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>481</v>
       </c>
@@ -11788,7 +11832,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>483</v>
       </c>
@@ -11823,7 +11867,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>485</v>
       </c>
@@ -11858,7 +11902,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>487</v>
       </c>
@@ -11893,7 +11937,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>489</v>
       </c>
@@ -11928,7 +11972,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>491</v>
       </c>
@@ -11963,7 +12007,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -11998,7 +12042,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>495</v>
       </c>
@@ -12033,7 +12077,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>497</v>
       </c>
@@ -12068,7 +12112,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>499</v>
       </c>
@@ -12103,7 +12147,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>501</v>
       </c>
@@ -12138,7 +12182,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>503</v>
       </c>
@@ -12173,7 +12217,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>505</v>
       </c>
@@ -12208,7 +12252,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>507</v>
       </c>
@@ -12243,7 +12287,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>509</v>
       </c>
@@ -12278,7 +12322,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -12313,7 +12357,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>513</v>
       </c>
@@ -12348,7 +12392,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>515</v>
       </c>
@@ -12383,7 +12427,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>517</v>
       </c>
@@ -12418,7 +12462,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>519</v>
       </c>
@@ -12453,7 +12497,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>521</v>
       </c>
@@ -12488,7 +12532,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>523</v>
       </c>
@@ -12523,7 +12567,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>525</v>
       </c>
@@ -12558,7 +12602,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>527</v>
       </c>
@@ -12593,7 +12637,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>529</v>
       </c>
@@ -12628,7 +12672,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>531</v>
       </c>
@@ -12663,7 +12707,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>533</v>
       </c>
@@ -12698,7 +12742,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>535</v>
       </c>
@@ -12733,7 +12777,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>537</v>
       </c>
@@ -12768,7 +12812,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>539</v>
       </c>
@@ -12803,7 +12847,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>541</v>
       </c>
@@ -12838,7 +12882,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>543</v>
       </c>
@@ -12873,7 +12917,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>545</v>
       </c>
@@ -12908,7 +12952,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>548</v>
       </c>
@@ -12943,7 +12987,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>550</v>
       </c>
@@ -12978,7 +13022,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>552</v>
       </c>
@@ -13013,7 +13057,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>554</v>
       </c>
@@ -13048,7 +13092,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>556</v>
       </c>
@@ -13083,7 +13127,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>558</v>
       </c>
@@ -13118,7 +13162,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>560</v>
       </c>
@@ -13153,7 +13197,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>562</v>
       </c>
@@ -13188,7 +13232,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>564</v>
       </c>
@@ -13223,7 +13267,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>566</v>
       </c>
@@ -13258,7 +13302,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>568</v>
       </c>
@@ -13293,7 +13337,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>570</v>
       </c>
@@ -13328,7 +13372,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>572</v>
       </c>
@@ -13363,7 +13407,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>574</v>
       </c>
@@ -13398,7 +13442,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>576</v>
       </c>
@@ -13433,7 +13477,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>578</v>
       </c>
@@ -13468,7 +13512,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>580</v>
       </c>
@@ -13503,7 +13547,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>582</v>
       </c>
@@ -13538,7 +13582,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>584</v>
       </c>
@@ -13573,7 +13617,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>586</v>
       </c>
@@ -13608,7 +13652,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>588</v>
       </c>
@@ -13643,7 +13687,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>590</v>
       </c>
@@ -13678,7 +13722,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>592</v>
       </c>
@@ -13713,7 +13757,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>594</v>
       </c>
@@ -13748,7 +13792,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>596</v>
       </c>
@@ -13783,7 +13827,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>598</v>
       </c>
@@ -13818,7 +13862,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>600</v>
       </c>
@@ -13853,7 +13897,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>602</v>
       </c>
@@ -13888,7 +13932,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>604</v>
       </c>
@@ -13923,7 +13967,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>606</v>
       </c>
@@ -13958,7 +14002,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>608</v>
       </c>
@@ -13993,7 +14037,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>610</v>
       </c>
@@ -14028,7 +14072,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>612</v>
       </c>
@@ -14063,7 +14107,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>614</v>
       </c>
@@ -14098,7 +14142,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>616</v>
       </c>
@@ -14133,7 +14177,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>618</v>
       </c>
@@ -14168,7 +14212,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>620</v>
       </c>
@@ -14203,7 +14247,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>622</v>
       </c>
@@ -14238,7 +14282,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>624</v>
       </c>
@@ -14273,7 +14317,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>626</v>
       </c>
@@ -14308,7 +14352,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>628</v>
       </c>
@@ -14343,7 +14387,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>630</v>
       </c>
@@ -14378,7 +14422,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>632</v>
       </c>
@@ -14413,7 +14457,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>634</v>
       </c>
@@ -14448,7 +14492,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>636</v>
       </c>
@@ -14483,7 +14527,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>638</v>
       </c>
@@ -14518,7 +14562,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>640</v>
       </c>
@@ -14553,7 +14597,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>642</v>
       </c>
@@ -14588,7 +14632,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>645</v>
       </c>
@@ -14623,7 +14667,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>648</v>
       </c>
@@ -14664,93 +14708,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>651</v>
       </c>
@@ -14983,7 +15025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -15216,7 +15258,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -15431,7 +15473,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>753</v>
       </c>
@@ -15664,12 +15706,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>814</v>
       </c>
@@ -15686,67 +15728,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="427.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="427.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>816</v>
       </c>
@@ -15901,7 +15941,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -16056,7 +16096,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -16205,7 +16245,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>916</v>
       </c>
@@ -16360,12 +16400,12 @@
         <v>966</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>967</v>
       </c>
@@ -16382,25 +16422,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1135.7109375" customWidth="1"/>
-    <col min="4" max="4" width="519.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1135.6640625" customWidth="1"/>
+    <col min="4" max="4" width="519.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>970</v>
       </c>
@@ -16429,7 +16468,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>979</v>
       </c>
@@ -16458,7 +16497,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>988</v>
       </c>
@@ -16487,7 +16526,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>997</v>
       </c>
@@ -16516,12 +16555,12 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1006</v>
       </c>
@@ -16547,28 +16586,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1012</v>
       </c>
@@ -16606,7 +16645,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1024</v>
       </c>
@@ -16644,7 +16683,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1034</v>
       </c>
@@ -16682,7 +16721,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1045</v>
       </c>
@@ -16720,12 +16759,12 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1057</v>
       </c>
@@ -16751,21 +16790,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -16782,7 +16821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -16799,7 +16838,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>180</v>
       </c>
@@ -16816,7 +16855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1063</v>
       </c>
@@ -16833,12 +16872,12 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1068</v>
       </c>
@@ -16849,46 +16888,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD593"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1069</v>
       </c>
@@ -16980,7 +17017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1081</v>
       </c>
@@ -17072,7 +17109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1090</v>
       </c>
@@ -17152,7 +17189,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1100</v>
       </c>
@@ -17244,12 +17281,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1112</v>
       </c>
@@ -17272,7 +17309,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1117</v>
       </c>
@@ -17295,7 +17332,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1119</v>
       </c>
@@ -17318,7 +17355,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1121</v>
       </c>
@@ -17341,7 +17378,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1122</v>
       </c>
@@ -17364,7 +17401,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1124</v>
       </c>
@@ -17387,7 +17424,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1125</v>
       </c>
@@ -17410,7 +17447,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1127</v>
       </c>
@@ -17433,7 +17470,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1128</v>
       </c>
@@ -17456,7 +17493,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1130</v>
       </c>
@@ -17479,7 +17516,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1131</v>
       </c>
@@ -17502,7 +17539,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1133</v>
       </c>
@@ -17525,7 +17562,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1134</v>
       </c>
@@ -17548,7 +17585,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1136</v>
       </c>
@@ -17571,7 +17608,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1137</v>
       </c>
@@ -17594,7 +17631,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1139</v>
       </c>
@@ -17617,7 +17654,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1140</v>
       </c>
@@ -17640,7 +17677,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1142</v>
       </c>
@@ -17663,7 +17700,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1143</v>
       </c>
@@ -17686,7 +17723,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1145</v>
       </c>
@@ -17709,7 +17746,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1146</v>
       </c>
@@ -17732,7 +17769,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1148</v>
       </c>
@@ -17755,7 +17792,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1149</v>
       </c>
@@ -17778,7 +17815,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1151</v>
       </c>
@@ -17801,7 +17838,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1152</v>
       </c>
@@ -17824,7 +17861,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1154</v>
       </c>
@@ -17847,7 +17884,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1155</v>
       </c>
@@ -17870,7 +17907,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1157</v>
       </c>
@@ -17893,7 +17930,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1158</v>
       </c>
@@ -17916,7 +17953,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1160</v>
       </c>
@@ -17939,7 +17976,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1161</v>
       </c>
@@ -17962,7 +17999,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1163</v>
       </c>
@@ -17985,7 +18022,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1164</v>
       </c>
@@ -18008,7 +18045,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1166</v>
       </c>
@@ -18031,7 +18068,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1167</v>
       </c>
@@ -18054,7 +18091,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1169</v>
       </c>
@@ -18077,7 +18114,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1170</v>
       </c>
@@ -18100,7 +18137,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1172</v>
       </c>
@@ -18123,7 +18160,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1173</v>
       </c>
@@ -18146,7 +18183,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1175</v>
       </c>
@@ -18169,7 +18206,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1176</v>
       </c>
@@ -18192,7 +18229,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1178</v>
       </c>
@@ -18215,7 +18252,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1179</v>
       </c>
@@ -18238,7 +18275,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1181</v>
       </c>
@@ -18261,7 +18298,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1182</v>
       </c>
@@ -18284,7 +18321,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1184</v>
       </c>
@@ -18307,7 +18344,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1185</v>
       </c>
@@ -18330,7 +18367,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1187</v>
       </c>
@@ -18353,7 +18390,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1188</v>
       </c>
@@ -18376,7 +18413,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1190</v>
       </c>
@@ -18399,7 +18436,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1191</v>
       </c>
@@ -18422,7 +18459,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1193</v>
       </c>
@@ -18445,7 +18482,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1194</v>
       </c>
@@ -18468,7 +18505,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1196</v>
       </c>
@@ -18491,7 +18528,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1197</v>
       </c>
@@ -18514,7 +18551,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1199</v>
       </c>
@@ -18537,7 +18574,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1200</v>
       </c>
@@ -18560,7 +18597,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1202</v>
       </c>
@@ -18583,7 +18620,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1203</v>
       </c>
@@ -18606,7 +18643,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1205</v>
       </c>
@@ -18629,7 +18666,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1206</v>
       </c>
@@ -18652,7 +18689,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1208</v>
       </c>
@@ -18675,7 +18712,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1209</v>
       </c>
@@ -18698,7 +18735,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1211</v>
       </c>
@@ -18721,7 +18758,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1212</v>
       </c>
@@ -18744,7 +18781,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1214</v>
       </c>
@@ -18767,7 +18804,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1215</v>
       </c>
@@ -18790,7 +18827,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1217</v>
       </c>
@@ -18813,7 +18850,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1218</v>
       </c>
@@ -18836,7 +18873,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1220</v>
       </c>
@@ -18859,7 +18896,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1221</v>
       </c>
@@ -18882,7 +18919,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1223</v>
       </c>
@@ -18905,7 +18942,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1224</v>
       </c>
@@ -18928,7 +18965,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1226</v>
       </c>
@@ -18951,7 +18988,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1227</v>
       </c>
@@ -18974,7 +19011,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1229</v>
       </c>
@@ -18997,7 +19034,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1230</v>
       </c>
@@ -19020,7 +19057,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1232</v>
       </c>
@@ -19043,7 +19080,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1233</v>
       </c>
@@ -19066,7 +19103,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1235</v>
       </c>
@@ -19089,7 +19126,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1236</v>
       </c>
@@ -19112,7 +19149,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1238</v>
       </c>
@@ -19135,7 +19172,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1239</v>
       </c>
@@ -19158,7 +19195,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1241</v>
       </c>
@@ -19181,7 +19218,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1242</v>
       </c>
@@ -19204,7 +19241,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1244</v>
       </c>
@@ -19227,7 +19264,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1245</v>
       </c>
@@ -19250,7 +19287,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1247</v>
       </c>
@@ -19273,7 +19310,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1248</v>
       </c>
@@ -19296,7 +19333,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1250</v>
       </c>
@@ -19319,7 +19356,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1251</v>
       </c>
@@ -19342,7 +19379,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1253</v>
       </c>
@@ -19365,7 +19402,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1254</v>
       </c>
@@ -19388,7 +19425,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1256</v>
       </c>
@@ -19411,7 +19448,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1257</v>
       </c>
@@ -19434,7 +19471,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1259</v>
       </c>
@@ -19457,7 +19494,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1260</v>
       </c>
@@ -19480,7 +19517,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1262</v>
       </c>
@@ -19503,7 +19540,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1263</v>
       </c>
@@ -19526,7 +19563,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1265</v>
       </c>
@@ -19549,7 +19586,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1266</v>
       </c>
@@ -19572,7 +19609,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1268</v>
       </c>
@@ -19595,7 +19632,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1269</v>
       </c>
@@ -19618,7 +19655,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1271</v>
       </c>
@@ -19641,7 +19678,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1272</v>
       </c>
@@ -19664,7 +19701,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1274</v>
       </c>
@@ -19687,7 +19724,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1275</v>
       </c>
@@ -19710,7 +19747,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1277</v>
       </c>
@@ -19733,7 +19770,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1278</v>
       </c>
@@ -19756,7 +19793,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1280</v>
       </c>
@@ -19779,7 +19816,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1281</v>
       </c>
@@ -19802,7 +19839,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1283</v>
       </c>
@@ -19825,7 +19862,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1284</v>
       </c>
@@ -19848,7 +19885,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1286</v>
       </c>
@@ -19871,7 +19908,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1287</v>
       </c>
@@ -19894,7 +19931,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1289</v>
       </c>
@@ -19917,7 +19954,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1290</v>
       </c>
@@ -19940,7 +19977,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1292</v>
       </c>
@@ -19963,7 +20000,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1293</v>
       </c>
@@ -19986,7 +20023,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1295</v>
       </c>
@@ -20009,7 +20046,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1296</v>
       </c>
@@ -20032,7 +20069,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1298</v>
       </c>
@@ -20055,7 +20092,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1299</v>
       </c>
@@ -20078,7 +20115,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1301</v>
       </c>
@@ -20101,7 +20138,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1302</v>
       </c>
@@ -20124,7 +20161,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1304</v>
       </c>
@@ -20147,7 +20184,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1305</v>
       </c>
@@ -20170,7 +20207,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1307</v>
       </c>
@@ -20193,7 +20230,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1308</v>
       </c>
@@ -20216,7 +20253,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1310</v>
       </c>
@@ -20239,7 +20276,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1311</v>
       </c>
@@ -20262,7 +20299,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1313</v>
       </c>
@@ -20285,7 +20322,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1314</v>
       </c>
@@ -20308,7 +20345,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1316</v>
       </c>
@@ -20331,7 +20368,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1317</v>
       </c>
@@ -20354,7 +20391,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1319</v>
       </c>
@@ -20377,7 +20414,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1320</v>
       </c>
@@ -20400,7 +20437,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1322</v>
       </c>
@@ -20423,7 +20460,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1323</v>
       </c>
@@ -20446,7 +20483,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1325</v>
       </c>
@@ -20469,7 +20506,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1326</v>
       </c>
@@ -20492,7 +20529,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1328</v>
       </c>
@@ -20515,7 +20552,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1329</v>
       </c>
@@ -20538,7 +20575,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1331</v>
       </c>
@@ -20561,7 +20598,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1332</v>
       </c>
@@ -20584,7 +20621,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1334</v>
       </c>
@@ -20607,7 +20644,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1335</v>
       </c>
@@ -20630,7 +20667,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1337</v>
       </c>
@@ -20653,7 +20690,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1338</v>
       </c>
@@ -20676,7 +20713,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1340</v>
       </c>
@@ -20699,7 +20736,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1341</v>
       </c>
@@ -20722,7 +20759,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1343</v>
       </c>
@@ -20745,7 +20782,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1344</v>
       </c>
@@ -20768,7 +20805,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1346</v>
       </c>
@@ -20791,7 +20828,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1347</v>
       </c>
@@ -20814,7 +20851,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1349</v>
       </c>
@@ -20837,7 +20874,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1350</v>
       </c>
@@ -20860,7 +20897,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1352</v>
       </c>
@@ -20883,7 +20920,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1353</v>
       </c>
@@ -20906,7 +20943,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1355</v>
       </c>
@@ -20929,7 +20966,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1356</v>
       </c>
@@ -20952,7 +20989,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1358</v>
       </c>
@@ -20975,7 +21012,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1359</v>
       </c>
@@ -20998,7 +21035,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1361</v>
       </c>
@@ -21021,7 +21058,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1362</v>
       </c>
@@ -21044,7 +21081,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1364</v>
       </c>
@@ -21067,7 +21104,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1365</v>
       </c>
@@ -21090,7 +21127,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1367</v>
       </c>
@@ -21113,7 +21150,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1368</v>
       </c>
@@ -21136,7 +21173,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1370</v>
       </c>
@@ -21159,7 +21196,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1371</v>
       </c>
@@ -21182,7 +21219,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1373</v>
       </c>
@@ -21205,7 +21242,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1374</v>
       </c>
@@ -21228,7 +21265,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1376</v>
       </c>
@@ -21251,7 +21288,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1377</v>
       </c>
@@ -21274,7 +21311,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1379</v>
       </c>
@@ -21297,7 +21334,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1380</v>
       </c>
@@ -21320,7 +21357,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1382</v>
       </c>
@@ -21343,7 +21380,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1383</v>
       </c>
@@ -21366,7 +21403,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1385</v>
       </c>
@@ -21389,7 +21426,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1386</v>
       </c>
@@ -21412,7 +21449,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1388</v>
       </c>
@@ -21435,7 +21472,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1389</v>
       </c>
@@ -21458,7 +21495,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1391</v>
       </c>
@@ -21481,7 +21518,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1392</v>
       </c>
@@ -21504,7 +21541,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1394</v>
       </c>
@@ -21527,7 +21564,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1395</v>
       </c>
@@ -21550,7 +21587,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1397</v>
       </c>
@@ -21573,7 +21610,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1398</v>
       </c>
@@ -21596,7 +21633,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1400</v>
       </c>
@@ -21619,7 +21656,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1401</v>
       </c>
@@ -21642,7 +21679,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1403</v>
       </c>
@@ -21665,7 +21702,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1404</v>
       </c>
@@ -21688,7 +21725,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1406</v>
       </c>
@@ -21711,7 +21748,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1407</v>
       </c>
@@ -21734,7 +21771,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1409</v>
       </c>
@@ -21757,7 +21794,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1410</v>
       </c>
@@ -21780,7 +21817,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1412</v>
       </c>
@@ -21803,7 +21840,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1413</v>
       </c>
@@ -21826,7 +21863,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1415</v>
       </c>
@@ -21849,7 +21886,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1416</v>
       </c>
@@ -21872,7 +21909,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1418</v>
       </c>
@@ -21895,7 +21932,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1419</v>
       </c>
@@ -21918,7 +21955,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1421</v>
       </c>
@@ -21941,7 +21978,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1422</v>
       </c>
@@ -21964,7 +22001,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1424</v>
       </c>
@@ -21987,7 +22024,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1425</v>
       </c>
@@ -22010,7 +22047,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1427</v>
       </c>
@@ -22033,7 +22070,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1428</v>
       </c>
@@ -22056,7 +22093,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1430</v>
       </c>
@@ -22079,7 +22116,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1431</v>
       </c>
@@ -22102,7 +22139,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1433</v>
       </c>
@@ -22125,7 +22162,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1434</v>
       </c>
@@ -22148,7 +22185,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1436</v>
       </c>
@@ -22171,7 +22208,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1437</v>
       </c>
@@ -22194,7 +22231,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1439</v>
       </c>
@@ -22217,7 +22254,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1440</v>
       </c>
@@ -22240,7 +22277,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1442</v>
       </c>
@@ -22263,7 +22300,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1443</v>
       </c>
@@ -22286,7 +22323,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1445</v>
       </c>
@@ -22309,7 +22346,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1446</v>
       </c>
@@ -22332,7 +22369,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1448</v>
       </c>
@@ -22355,7 +22392,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1449</v>
       </c>
@@ -22378,7 +22415,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1451</v>
       </c>
@@ -22401,7 +22438,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1452</v>
       </c>
@@ -22424,7 +22461,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1454</v>
       </c>
@@ -22447,7 +22484,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1455</v>
       </c>
@@ -22470,7 +22507,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1457</v>
       </c>
@@ -22493,7 +22530,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1458</v>
       </c>
@@ -22516,7 +22553,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1460</v>
       </c>
@@ -22539,7 +22576,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1461</v>
       </c>
@@ -22562,7 +22599,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1463</v>
       </c>
@@ -22585,7 +22622,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1464</v>
       </c>
@@ -22608,7 +22645,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1466</v>
       </c>
@@ -22631,7 +22668,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1467</v>
       </c>
@@ -22654,7 +22691,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1469</v>
       </c>
@@ -22677,7 +22714,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1470</v>
       </c>
@@ -22700,7 +22737,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1472</v>
       </c>
@@ -22723,7 +22760,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1473</v>
       </c>
@@ -22746,7 +22783,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1475</v>
       </c>
@@ -22769,7 +22806,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1476</v>
       </c>
@@ -22792,7 +22829,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1478</v>
       </c>
@@ -22815,7 +22852,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1479</v>
       </c>
@@ -22838,7 +22875,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1481</v>
       </c>
@@ -22861,7 +22898,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1482</v>
       </c>
@@ -22884,7 +22921,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1484</v>
       </c>
@@ -22907,7 +22944,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1485</v>
       </c>
@@ -22930,7 +22967,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1487</v>
       </c>
@@ -22953,7 +22990,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1488</v>
       </c>
@@ -22976,7 +23013,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1490</v>
       </c>
@@ -22999,7 +23036,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1491</v>
       </c>
@@ -23022,7 +23059,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1493</v>
       </c>
@@ -23045,7 +23082,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1494</v>
       </c>
@@ -23068,7 +23105,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1496</v>
       </c>
@@ -23091,7 +23128,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1497</v>
       </c>
@@ -23114,7 +23151,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1499</v>
       </c>
@@ -23137,7 +23174,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1500</v>
       </c>
@@ -23160,7 +23197,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1502</v>
       </c>
@@ -23183,7 +23220,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1503</v>
       </c>
@@ -23206,7 +23243,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1505</v>
       </c>
@@ -23229,7 +23266,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1506</v>
       </c>
@@ -23252,7 +23289,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1508</v>
       </c>
@@ -23275,7 +23312,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1509</v>
       </c>
@@ -23298,7 +23335,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1511</v>
       </c>
@@ -23321,7 +23358,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1512</v>
       </c>
@@ -23344,7 +23381,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1514</v>
       </c>
@@ -23367,7 +23404,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1515</v>
       </c>
@@ -23390,7 +23427,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1517</v>
       </c>
@@ -23413,7 +23450,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1518</v>
       </c>
@@ -23436,7 +23473,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1520</v>
       </c>
@@ -23459,7 +23496,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1521</v>
       </c>
@@ -23482,7 +23519,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1523</v>
       </c>
@@ -23505,7 +23542,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1524</v>
       </c>
@@ -23528,7 +23565,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1526</v>
       </c>
@@ -23551,7 +23588,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1527</v>
       </c>
@@ -23574,7 +23611,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1529</v>
       </c>
@@ -23597,7 +23634,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1530</v>
       </c>
@@ -23620,7 +23657,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1532</v>
       </c>
@@ -23643,7 +23680,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1533</v>
       </c>
@@ -23666,7 +23703,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1535</v>
       </c>
@@ -23689,7 +23726,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1536</v>
       </c>
@@ -23712,7 +23749,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1538</v>
       </c>
@@ -23735,7 +23772,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1539</v>
       </c>
@@ -23758,7 +23795,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1541</v>
       </c>
@@ -23781,7 +23818,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1542</v>
       </c>
@@ -23804,7 +23841,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1544</v>
       </c>
@@ -23827,7 +23864,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1545</v>
       </c>
@@ -23850,7 +23887,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1547</v>
       </c>
@@ -23873,7 +23910,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1548</v>
       </c>
@@ -23896,7 +23933,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1550</v>
       </c>
@@ -23919,7 +23956,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1551</v>
       </c>
@@ -23942,7 +23979,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1553</v>
       </c>
@@ -23965,7 +24002,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1554</v>
       </c>
@@ -23988,7 +24025,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1556</v>
       </c>
@@ -24011,7 +24048,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1557</v>
       </c>
@@ -24034,7 +24071,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1559</v>
       </c>
@@ -24057,7 +24094,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1560</v>
       </c>
@@ -24080,7 +24117,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1562</v>
       </c>
@@ -24103,7 +24140,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1563</v>
       </c>
@@ -24126,7 +24163,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1565</v>
       </c>
@@ -24149,7 +24186,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1566</v>
       </c>
@@ -24172,7 +24209,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1568</v>
       </c>
@@ -24195,7 +24232,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1569</v>
       </c>
@@ -24218,7 +24255,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1571</v>
       </c>
@@ -24241,7 +24278,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1572</v>
       </c>
@@ -24264,7 +24301,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1574</v>
       </c>
@@ -24287,7 +24324,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1575</v>
       </c>
@@ -24310,7 +24347,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1577</v>
       </c>
@@ -24333,7 +24370,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1578</v>
       </c>
@@ -24356,7 +24393,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1580</v>
       </c>
@@ -24379,7 +24416,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1581</v>
       </c>
@@ -24402,7 +24439,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1583</v>
       </c>
@@ -24425,7 +24462,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1584</v>
       </c>
@@ -24448,7 +24485,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1586</v>
       </c>
@@ -24471,7 +24508,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1587</v>
       </c>
@@ -24494,7 +24531,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1589</v>
       </c>
@@ -24517,7 +24554,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1590</v>
       </c>
@@ -24540,7 +24577,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1592</v>
       </c>
@@ -24563,7 +24600,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1593</v>
       </c>
@@ -24586,7 +24623,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1595</v>
       </c>
@@ -24609,7 +24646,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1596</v>
       </c>
@@ -24632,7 +24669,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1598</v>
       </c>
@@ -24655,7 +24692,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1599</v>
       </c>
@@ -24678,7 +24715,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1601</v>
       </c>
@@ -24701,7 +24738,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1602</v>
       </c>
@@ -24724,7 +24761,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1604</v>
       </c>
@@ -24747,7 +24784,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1605</v>
       </c>
@@ -24770,7 +24807,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1607</v>
       </c>
@@ -24793,7 +24830,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1608</v>
       </c>
@@ -24816,7 +24853,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1610</v>
       </c>
@@ -24839,7 +24876,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1611</v>
       </c>
@@ -24862,7 +24899,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1613</v>
       </c>
@@ -24885,7 +24922,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1614</v>
       </c>
@@ -24908,7 +24945,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1616</v>
       </c>
@@ -24931,7 +24968,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1617</v>
       </c>
@@ -24954,7 +24991,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1619</v>
       </c>
@@ -24977,7 +25014,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1620</v>
       </c>
@@ -25000,7 +25037,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1622</v>
       </c>
@@ -25023,7 +25060,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1623</v>
       </c>
@@ -25046,7 +25083,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1625</v>
       </c>
@@ -25069,7 +25106,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1626</v>
       </c>
@@ -25092,7 +25129,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1628</v>
       </c>
@@ -25115,7 +25152,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1629</v>
       </c>
@@ -25138,7 +25175,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1631</v>
       </c>
@@ -25161,7 +25198,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1632</v>
       </c>
@@ -25184,7 +25221,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1634</v>
       </c>
@@ -25207,7 +25244,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1635</v>
       </c>
@@ -25230,7 +25267,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1637</v>
       </c>
@@ -25253,7 +25290,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1638</v>
       </c>
@@ -25276,7 +25313,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1640</v>
       </c>
@@ -25299,7 +25336,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1641</v>
       </c>
@@ -25322,7 +25359,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1643</v>
       </c>
@@ -25345,7 +25382,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1644</v>
       </c>
@@ -25368,7 +25405,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1646</v>
       </c>
@@ -25391,7 +25428,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1647</v>
       </c>
@@ -25414,7 +25451,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1649</v>
       </c>
@@ -25437,7 +25474,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1650</v>
       </c>
@@ -25460,7 +25497,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1652</v>
       </c>
@@ -25483,7 +25520,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1653</v>
       </c>
@@ -25506,7 +25543,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1655</v>
       </c>
@@ -25529,7 +25566,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1656</v>
       </c>
@@ -25552,7 +25589,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1658</v>
       </c>
@@ -25575,7 +25612,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1659</v>
       </c>
@@ -25598,7 +25635,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1661</v>
       </c>
@@ -25621,7 +25658,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1662</v>
       </c>
@@ -25644,7 +25681,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1664</v>
       </c>
@@ -25667,7 +25704,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1665</v>
       </c>
@@ -25690,7 +25727,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1667</v>
       </c>
@@ -25713,7 +25750,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1668</v>
       </c>
@@ -25736,7 +25773,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1670</v>
       </c>
@@ -25759,7 +25796,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1671</v>
       </c>
@@ -25782,7 +25819,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1673</v>
       </c>
@@ -25805,7 +25842,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1674</v>
       </c>
@@ -25828,7 +25865,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1676</v>
       </c>
@@ -25851,7 +25888,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1677</v>
       </c>
@@ -25874,7 +25911,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1679</v>
       </c>
@@ -25897,7 +25934,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1680</v>
       </c>
@@ -25920,7 +25957,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1682</v>
       </c>
@@ -25943,7 +25980,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1683</v>
       </c>
@@ -25966,7 +26003,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1685</v>
       </c>
@@ -25989,7 +26026,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1686</v>
       </c>
@@ -26012,7 +26049,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1688</v>
       </c>
@@ -26035,7 +26072,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1689</v>
       </c>
@@ -26058,7 +26095,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1691</v>
       </c>
@@ -26081,7 +26118,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1692</v>
       </c>
@@ -26104,7 +26141,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1694</v>
       </c>
@@ -26127,7 +26164,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1695</v>
       </c>
@@ -26150,7 +26187,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1697</v>
       </c>
@@ -26173,7 +26210,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1698</v>
       </c>
@@ -26196,7 +26233,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1700</v>
       </c>
@@ -26219,7 +26256,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1701</v>
       </c>
@@ -26242,7 +26279,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1703</v>
       </c>
@@ -26265,7 +26302,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1704</v>
       </c>
@@ -26288,7 +26325,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1706</v>
       </c>
@@ -26311,7 +26348,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1707</v>
       </c>
@@ -26334,7 +26371,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1709</v>
       </c>
@@ -26357,7 +26394,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1710</v>
       </c>
@@ -26380,7 +26417,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1712</v>
       </c>
@@ -26403,7 +26440,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1713</v>
       </c>
@@ -26426,7 +26463,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1715</v>
       </c>
@@ -26449,7 +26486,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1716</v>
       </c>
@@ -26472,7 +26509,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1718</v>
       </c>
@@ -26495,7 +26532,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1719</v>
       </c>
@@ -26518,7 +26555,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1721</v>
       </c>
@@ -26541,7 +26578,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1722</v>
       </c>
@@ -26564,7 +26601,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1724</v>
       </c>
@@ -26587,7 +26624,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1725</v>
       </c>
@@ -26610,7 +26647,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1727</v>
       </c>
@@ -26633,7 +26670,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1728</v>
       </c>
@@ -26656,7 +26693,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1730</v>
       </c>
@@ -26679,7 +26716,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1731</v>
       </c>
@@ -26702,7 +26739,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1733</v>
       </c>
@@ -26725,7 +26762,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1734</v>
       </c>
@@ -26748,7 +26785,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1736</v>
       </c>
@@ -26771,7 +26808,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1737</v>
       </c>
@@ -26794,7 +26831,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1739</v>
       </c>
@@ -26817,7 +26854,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1740</v>
       </c>
@@ -26840,7 +26877,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1742</v>
       </c>
@@ -26863,7 +26900,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1743</v>
       </c>
@@ -26886,7 +26923,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1745</v>
       </c>
@@ -26909,7 +26946,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1746</v>
       </c>
@@ -26932,7 +26969,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1748</v>
       </c>
@@ -26955,7 +26992,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1749</v>
       </c>
@@ -26978,7 +27015,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1751</v>
       </c>
@@ -27001,7 +27038,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1752</v>
       </c>
@@ -27024,7 +27061,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1754</v>
       </c>
@@ -27047,7 +27084,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1755</v>
       </c>
@@ -27070,7 +27107,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1757</v>
       </c>
@@ -27093,7 +27130,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1758</v>
       </c>
@@ -27116,7 +27153,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1760</v>
       </c>
@@ -27139,7 +27176,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1761</v>
       </c>
@@ -27162,7 +27199,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1763</v>
       </c>
@@ -27185,7 +27222,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1764</v>
       </c>
@@ -27208,7 +27245,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1766</v>
       </c>
@@ -27231,7 +27268,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1767</v>
       </c>
@@ -27254,7 +27291,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1769</v>
       </c>
@@ -27277,7 +27314,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1770</v>
       </c>
@@ -27300,7 +27337,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1772</v>
       </c>
@@ -27323,7 +27360,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1773</v>
       </c>
@@ -27346,7 +27383,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1775</v>
       </c>
@@ -27369,7 +27406,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1776</v>
       </c>
@@ -27392,7 +27429,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1778</v>
       </c>
@@ -27415,7 +27452,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1779</v>
       </c>
@@ -27438,7 +27475,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1781</v>
       </c>
@@ -27461,7 +27498,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1782</v>
       </c>
@@ -27484,7 +27521,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1784</v>
       </c>
@@ -27507,7 +27544,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1785</v>
       </c>
@@ -27530,7 +27567,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1787</v>
       </c>
@@ -27553,7 +27590,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1788</v>
       </c>
@@ -27576,7 +27613,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1790</v>
       </c>
@@ -27599,7 +27636,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1791</v>
       </c>
@@ -27622,7 +27659,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1793</v>
       </c>
@@ -27645,7 +27682,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1794</v>
       </c>
@@ -27668,7 +27705,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1796</v>
       </c>
@@ -27691,7 +27728,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1797</v>
       </c>
@@ -27714,7 +27751,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1799</v>
       </c>
@@ -27737,7 +27774,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1800</v>
       </c>
@@ -27760,7 +27797,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1802</v>
       </c>
@@ -27783,7 +27820,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1803</v>
       </c>
@@ -27806,7 +27843,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1805</v>
       </c>
@@ -27829,7 +27866,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1806</v>
       </c>
@@ -27852,7 +27889,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1808</v>
       </c>
@@ -27875,7 +27912,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1809</v>
       </c>
@@ -27898,7 +27935,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1811</v>
       </c>
@@ -27921,7 +27958,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1812</v>
       </c>
@@ -27944,7 +27981,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1814</v>
       </c>
@@ -27967,7 +28004,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1815</v>
       </c>
@@ -27990,7 +28027,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1817</v>
       </c>
@@ -28013,7 +28050,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1818</v>
       </c>
@@ -28036,7 +28073,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1820</v>
       </c>
@@ -28059,7 +28096,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1821</v>
       </c>
@@ -28082,7 +28119,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1823</v>
       </c>
@@ -28105,7 +28142,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1824</v>
       </c>
@@ -28128,7 +28165,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1826</v>
       </c>
@@ -28151,7 +28188,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1827</v>
       </c>
@@ -28174,7 +28211,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1829</v>
       </c>
@@ -28197,7 +28234,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1830</v>
       </c>
@@ -28220,7 +28257,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1832</v>
       </c>
@@ -28243,7 +28280,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1833</v>
       </c>
@@ -28266,7 +28303,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1835</v>
       </c>
@@ -28289,7 +28326,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1836</v>
       </c>
@@ -28312,7 +28349,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1838</v>
       </c>
@@ -28335,7 +28372,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1839</v>
       </c>
@@ -28358,7 +28395,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1841</v>
       </c>
@@ -28381,7 +28418,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1842</v>
       </c>
@@ -28404,7 +28441,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1844</v>
       </c>
@@ -28427,7 +28464,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1845</v>
       </c>
@@ -28450,7 +28487,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1847</v>
       </c>
@@ -28473,7 +28510,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1848</v>
       </c>
@@ -28496,7 +28533,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1850</v>
       </c>
@@ -28519,7 +28556,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1851</v>
       </c>
@@ -28542,7 +28579,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1853</v>
       </c>
@@ -28565,7 +28602,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1854</v>
       </c>
@@ -28588,7 +28625,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1856</v>
       </c>
@@ -28611,7 +28648,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1857</v>
       </c>
@@ -28634,7 +28671,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1859</v>
       </c>
@@ -28657,7 +28694,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1860</v>
       </c>
@@ -28680,7 +28717,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1862</v>
       </c>
@@ -28703,7 +28740,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1863</v>
       </c>
@@ -28726,7 +28763,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1865</v>
       </c>
@@ -28749,7 +28786,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1866</v>
       </c>
@@ -28772,7 +28809,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1868</v>
       </c>
@@ -28795,7 +28832,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1869</v>
       </c>
@@ -28818,7 +28855,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1871</v>
       </c>
@@ -28841,7 +28878,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1872</v>
       </c>
@@ -28864,7 +28901,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1874</v>
       </c>
@@ -28887,7 +28924,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1875</v>
       </c>
@@ -28910,7 +28947,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1877</v>
       </c>
@@ -28933,7 +28970,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1878</v>
       </c>
@@ -28956,7 +28993,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1880</v>
       </c>
@@ -28979,7 +29016,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1881</v>
       </c>
@@ -29002,7 +29039,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1883</v>
       </c>
@@ -29025,7 +29062,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1884</v>
       </c>
@@ -29048,7 +29085,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1886</v>
       </c>
@@ -29071,7 +29108,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1887</v>
       </c>
@@ -29094,7 +29131,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1889</v>
       </c>
@@ -29117,7 +29154,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1890</v>
       </c>
@@ -29140,7 +29177,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1892</v>
       </c>
@@ -29163,7 +29200,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1893</v>
       </c>
@@ -29186,7 +29223,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1895</v>
       </c>
@@ -29209,7 +29246,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1896</v>
       </c>
@@ -29232,7 +29269,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1898</v>
       </c>
@@ -29255,7 +29292,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1899</v>
       </c>
@@ -29278,7 +29315,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1901</v>
       </c>
@@ -29301,7 +29338,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1902</v>
       </c>
@@ -29324,7 +29361,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1904</v>
       </c>
@@ -29347,7 +29384,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1905</v>
       </c>
@@ -29370,7 +29407,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1907</v>
       </c>
@@ -29393,7 +29430,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1908</v>
       </c>
@@ -29416,7 +29453,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1910</v>
       </c>
@@ -29439,7 +29476,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1911</v>
       </c>
@@ -29462,7 +29499,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1913</v>
       </c>
@@ -29485,7 +29522,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1914</v>
       </c>
@@ -29508,7 +29545,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1916</v>
       </c>
@@ -29531,7 +29568,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1917</v>
       </c>
@@ -29554,7 +29591,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1919</v>
       </c>
@@ -29577,7 +29614,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1920</v>
       </c>
@@ -29600,7 +29637,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1922</v>
       </c>
@@ -29623,7 +29660,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1923</v>
       </c>
@@ -29646,7 +29683,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1925</v>
       </c>
@@ -29669,7 +29706,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1926</v>
       </c>
@@ -29692,7 +29729,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1928</v>
       </c>
@@ -29715,7 +29752,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1929</v>
       </c>
@@ -29738,7 +29775,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1931</v>
       </c>
@@ -29761,7 +29798,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1932</v>
       </c>
@@ -29784,7 +29821,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>1934</v>
       </c>
@@ -29807,7 +29844,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>1935</v>
       </c>
@@ -29830,7 +29867,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1937</v>
       </c>
@@ -29853,7 +29890,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1938</v>
       </c>
@@ -29876,7 +29913,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1940</v>
       </c>
@@ -29899,7 +29936,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1941</v>
       </c>
@@ -29922,7 +29959,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1943</v>
       </c>
@@ -29945,7 +29982,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="558" spans="1:14">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1944</v>
       </c>
@@ -29968,7 +30005,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1946</v>
       </c>
@@ -29991,7 +30028,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1947</v>
       </c>
@@ -30014,7 +30051,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="561" spans="1:14">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1949</v>
       </c>
@@ -30037,7 +30074,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="562" spans="1:14">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1950</v>
       </c>
@@ -30060,7 +30097,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="563" spans="1:14">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1952</v>
       </c>
@@ -30083,7 +30120,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="564" spans="1:14">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1953</v>
       </c>
@@ -30106,7 +30143,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="565" spans="1:14">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1955</v>
       </c>
@@ -30129,7 +30166,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="566" spans="1:14">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1956</v>
       </c>
@@ -30152,7 +30189,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="567" spans="1:14">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1958</v>
       </c>
@@ -30175,7 +30212,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="568" spans="1:14">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1959</v>
       </c>
@@ -30198,7 +30235,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="569" spans="1:14">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1961</v>
       </c>
@@ -30221,7 +30258,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="570" spans="1:14">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1962</v>
       </c>
@@ -30244,7 +30281,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="571" spans="1:14">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1964</v>
       </c>
@@ -30267,7 +30304,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="572" spans="1:14">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1965</v>
       </c>
@@ -30290,7 +30327,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="573" spans="1:14">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1967</v>
       </c>
@@ -30313,7 +30350,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="574" spans="1:14">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1968</v>
       </c>
@@ -30336,7 +30373,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="575" spans="1:14">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1970</v>
       </c>
@@ -30359,7 +30396,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="576" spans="1:14">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1971</v>
       </c>
@@ -30382,7 +30419,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="577" spans="1:14">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1973</v>
       </c>
@@ -30405,7 +30442,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="578" spans="1:14">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1974</v>
       </c>
@@ -30428,7 +30465,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="579" spans="1:14">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1976</v>
       </c>
@@ -30451,7 +30488,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="580" spans="1:14">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1977</v>
       </c>
@@ -30474,7 +30511,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="581" spans="1:14">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1979</v>
       </c>
@@ -30497,7 +30534,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="582" spans="1:14">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1980</v>
       </c>
@@ -30520,7 +30557,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="583" spans="1:14">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1982</v>
       </c>
@@ -30543,7 +30580,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="584" spans="1:14">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1983</v>
       </c>
@@ -30566,7 +30603,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="585" spans="1:14">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1985</v>
       </c>
@@ -30589,7 +30626,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="586" spans="1:14">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1986</v>
       </c>
@@ -30612,7 +30649,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="587" spans="1:14">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1988</v>
       </c>
@@ -30635,7 +30672,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="588" spans="1:14">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1989</v>
       </c>
@@ -30658,7 +30695,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="589" spans="1:14">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1991</v>
       </c>
@@ -30681,7 +30718,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="590" spans="1:14">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1992</v>
       </c>
@@ -30704,7 +30741,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="591" spans="1:14">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1994</v>
       </c>
@@ -30727,7 +30764,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="592" spans="1:14">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1995</v>
       </c>
@@ -30750,7 +30787,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="593" spans="1:14">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1997</v>
       </c>
@@ -30779,34 +30816,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="427.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="427.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1080</v>
       </c>
@@ -30862,7 +30901,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -30918,7 +30957,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -30968,7 +31007,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1111</v>
       </c>
@@ -31024,12 +31063,12 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1116</v>
       </c>
@@ -31038,6 +31077,9 @@
       </c>
       <c r="G6" t="s">
         <v>2044</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2151</v>
       </c>
     </row>
   </sheetData>
